--- a/WSC/Test Cases/Counselling/WSC Counselling_Admit Card.xlsx
+++ b/WSC/Test Cases/Counselling/WSC Counselling_Admit Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6830" tabRatio="599"/>
+    <workbookView windowWidth="22188" windowHeight="9024" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="6" r:id="rId1"/>
@@ -17,28 +17,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="273">
   <si>
     <t>Contents</t>
   </si>
   <si>
     <t xml:space="preserve">
 Admit Card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Settings
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Statement
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost Center
-</t>
-  </si>
-  <si>
-    <t>Taxes</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -47,28 +32,6 @@
 </t>
   </si>
   <si>
-    <t>Payment Gateway Account
-Mode of Payment</t>
-  </si>
-  <si>
-    <t>Bank
-Bank Account
-Bank Clearance
-Bank Reconciliation Tool
-Bank Reconciliation Statement</t>
-  </si>
-  <si>
-    <t>Chart of Cost Centers
-Accounting Dimension</t>
-  </si>
-  <si>
-    <t>Tax Category
-Item Tax Template
-Purchase Taxes and Charges Template
-Tax Rule
-Tax Withholding Category</t>
-  </si>
-  <si>
     <t>Test Case ID</t>
   </si>
   <si>
@@ -79,7 +42,8 @@
     <t>Test Case Description</t>
   </si>
   <si>
-    <t>Test Admit Card_Entrance Exam Admit Card Tool Module</t>
+    <t>A tool to generate multiple admit cards of applicants on the basis of their preferred center selection to allots them a venue for the exam.
+If some applicants are de-alloted to a particular center then it will again check while creating Admit Card</t>
   </si>
   <si>
     <t>Created By</t>
@@ -106,12 +70,12 @@
     <t xml:space="preserve">Different user credentials should be used :- </t>
   </si>
   <si>
-    <t xml:space="preserve">Credential for Infrastructure super admin:
-URL: https://wscdemo.eduleadonline.com
-Please find below the credentials for Infrastructure, maintenance, and Project Management testing. 
-User ID                                                          Password
----------------------------------------------------------------------------------
-</t>
+    <t>The system should have records in the following screen
+1.Academic Year
+2.Academic Term
+3.Student Applicants
+4.Center Selection Master
+5.Employee</t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -132,7 +96,7 @@
     <t>Actual Results</t>
   </si>
   <si>
-    <t>Pass/Fail/Not Executed/Suspended</t>
+    <t>Status</t>
   </si>
   <si>
     <t>Comment</t>
@@ -270,12 +234,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">TC2_Entrance Exam Admit Card
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Admit Card _Entrance Exam Admit Card
-</t>
+    <t>TC2_Entrance Exam Admit Card</t>
+  </si>
+  <si>
+    <t>1.A screen which holds information of an individual students admit card
+2. All the data in this field will be filled by the Admit Card Generation Tool</t>
   </si>
   <si>
     <t>User ID: Administrator
@@ -285,11 +248,9 @@
     <t>Different user credentials should be used :- super admin</t>
   </si>
   <si>
-    <t>Credential for Infrastructure super admin:
-URL: https://wscdemo.eduleadonline.com
-Please find below the credentials for Infrastructure, maintenance, and Project Management testing. 
-User ID                                                          Password
----------------------------------------------------------------------------------</t>
+    <t>The system should have records in the following screen
+1.Student Applicants
+2.Center Selection Master</t>
   </si>
   <si>
     <t>Verify the Entrance Exam Admit Card module.</t>
@@ -1019,7 +980,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1062,14 +1023,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1633,135 +1586,135 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1805,13 +1758,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1844,6 +1820,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1860,16 +1852,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2197,89 +2184,47 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:L6"/>
+  <dimension ref="A2:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="43.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="24.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="23.0909090909091" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="14.6363636363636" customWidth="1"/>
-    <col min="10" max="10" width="15.7272727272727" customWidth="1"/>
-    <col min="11" max="11" width="14.4545454545455" customWidth="1"/>
-    <col min="12" max="12" width="20.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="20.2685185185185" customWidth="1"/>
+    <col min="2" max="2" width="43.3611111111111" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="21" spans="2:2">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="88" customHeight="1" spans="1:12">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47" t="s">
+    <row r="4" ht="31.2" spans="1:5">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+    </row>
+    <row r="5" ht="56" customHeight="1" spans="2:5">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="53" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" ht="78" customHeight="1" spans="2:12">
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="51" t="s">
-        <v>10</v>
-      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="52"/>
+      <c r="B6" s="63"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I4" location="TC8_Settings!A1" display="Settings&#10;"/>
-    <hyperlink ref="J4" location="'TC8_Bank Statement'!A1" display="Bank Statement&#10;&#10;&#10;"/>
-    <hyperlink ref="K4" location="'TC9_Cost Center'!A1" display="Cost Center&#10;&#10;&#10;&#10;"/>
-    <hyperlink ref="L4" location="TC10_Taxes!A1" display="Taxes"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
@@ -2289,50 +2234,50 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="190.363636363636" customWidth="1"/>
-    <col min="3" max="3" width="30.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="111.454545454545" customWidth="1"/>
-    <col min="5" max="5" width="45.3636363636364" customWidth="1"/>
-    <col min="6" max="6" width="65.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="18.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="85.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="30.1851851851852" customWidth="1"/>
+    <col min="4" max="4" width="70.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="54.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="65.9074074074074" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="43.5" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
+    <row r="1" ht="86.4" spans="1:8">
+      <c r="A1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
+      <c r="A2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="26" t="s">
+        <v>9</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -2361,28 +2306,28 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3">
+      <c r="A6" s="53">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -2392,9 +2337,11 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3"/>
+      <c r="A7" s="53">
+        <v>2</v>
+      </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2403,9 +2350,12 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="87" spans="2:8">
+    <row r="8" ht="86.4" spans="1:8">
+      <c r="A8" s="53">
+        <v>3</v>
+      </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2415,24 +2365,23 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="53"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -2448,65 +2397,60 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="14" customHeight="1" spans="1:7">
+      <c r="A14" s="14"/>
+      <c r="B14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" ht="28.8" spans="1:7">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="14" customHeight="1" spans="1:7">
-      <c r="A13" s="14"/>
-      <c r="B13" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="25"/>
-    </row>
-    <row r="14" ht="29" spans="1:7">
-      <c r="A14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="9"/>
@@ -2514,44 +2458,44 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="9"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" ht="61" customHeight="1" spans="1:7">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="9"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" ht="31" customHeight="1" spans="1:7">
+    <row r="18" ht="61" customHeight="1" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="9"/>
@@ -2559,220 +2503,234 @@
     </row>
     <row r="19" ht="31" customHeight="1" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="9"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" ht="125" customHeight="1" spans="1:7">
+    <row r="20" ht="31" customHeight="1" spans="1:7">
       <c r="A20" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="9"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" ht="31" customHeight="1" spans="1:7">
-      <c r="A21" s="3"/>
+    <row r="21" ht="125" customHeight="1" spans="1:7">
+      <c r="A21" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="B21" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="9"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" ht="118" customHeight="1" spans="1:7">
-      <c r="A22" s="3" t="s">
-        <v>45</v>
-      </c>
+    <row r="22" ht="31" customHeight="1" spans="1:7">
+      <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="9"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" ht="36" customHeight="1" spans="1:7">
+    <row r="23" ht="118" customHeight="1" spans="1:7">
       <c r="A23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="34" t="s">
-        <v>58</v>
-      </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
-        <v>59</v>
+      <c r="D23" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="9"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" ht="29" customHeight="1" spans="1:7">
+    <row r="24" ht="36" customHeight="1" spans="1:7">
       <c r="A24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>50</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="9"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" s="24" customFormat="1" spans="1:4">
-      <c r="A25" s="35"/>
-      <c r="B25" s="42" t="s">
+    <row r="25" ht="29" customHeight="1" spans="1:7">
+      <c r="A25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" s="25" customFormat="1" spans="1:4">
+      <c r="A26" s="42"/>
+      <c r="B26" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
+    </row>
+    <row r="27" s="25" customFormat="1" spans="1:4">
+      <c r="A27" s="45"/>
+      <c r="B27" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="45"/>
+      <c r="D27" s="47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" s="25" customFormat="1" spans="1:4">
+      <c r="A28" s="45"/>
+      <c r="B28" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="45"/>
+      <c r="D28" s="47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" s="25" customFormat="1" spans="1:4">
+      <c r="A29" s="45"/>
+      <c r="B29" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" s="25" customFormat="1" spans="1:4">
+      <c r="A30" s="45"/>
+      <c r="B30" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="45"/>
+      <c r="D30" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-    </row>
-    <row r="26" s="24" customFormat="1" spans="1:4">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39" t="s">
+    </row>
+    <row r="31" s="25" customFormat="1" ht="28.8" spans="1:2">
+      <c r="A31" s="45"/>
+      <c r="B31" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" s="24" customFormat="1" spans="1:4">
-      <c r="A27" s="38"/>
-      <c r="B27" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" s="24" customFormat="1" spans="1:4">
-      <c r="A28" s="38"/>
-      <c r="B28" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" s="24" customFormat="1" spans="1:4">
-      <c r="A29" s="38"/>
-      <c r="B29" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" s="24" customFormat="1" ht="29" spans="1:2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" s="24" customFormat="1" spans="1:2">
-      <c r="A31" s="38"/>
-      <c r="B31" s="44"/>
-    </row>
-    <row r="32" s="24" customFormat="1"/>
-    <row r="33" s="24" customFormat="1"/>
-    <row r="34" s="24" customFormat="1"/>
-    <row r="35" s="24" customFormat="1"/>
-    <row r="36" s="24" customFormat="1"/>
-    <row r="37" s="24" customFormat="1"/>
-    <row r="38" s="24" customFormat="1"/>
-    <row r="39" s="24" customFormat="1"/>
-    <row r="40" s="24" customFormat="1"/>
-    <row r="41" s="24" customFormat="1"/>
-    <row r="42" s="24" customFormat="1"/>
-    <row r="43" s="24" customFormat="1"/>
-    <row r="44" s="24" customFormat="1"/>
-    <row r="45" s="24" customFormat="1"/>
-    <row r="46" s="24" customFormat="1"/>
-    <row r="47" s="24" customFormat="1"/>
-    <row r="48" spans="2:4">
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-    </row>
+    </row>
+    <row r="32" s="25" customFormat="1" spans="1:2">
+      <c r="A32" s="45"/>
+      <c r="B32" s="57"/>
+    </row>
+    <row r="33" s="25" customFormat="1"/>
+    <row r="34" s="25" customFormat="1"/>
+    <row r="35" s="25" customFormat="1"/>
+    <row r="36" s="25" customFormat="1"/>
+    <row r="37" s="25" customFormat="1"/>
+    <row r="38" s="25" customFormat="1"/>
+    <row r="39" s="25" customFormat="1"/>
+    <row r="40" s="25" customFormat="1"/>
+    <row r="41" s="25" customFormat="1"/>
+    <row r="42" s="25" customFormat="1"/>
+    <row r="43" s="25" customFormat="1"/>
+    <row r="44" s="25" customFormat="1"/>
+    <row r="45" s="25" customFormat="1"/>
+    <row r="46" s="25" customFormat="1"/>
+    <row r="47" s="25" customFormat="1"/>
+    <row r="48" s="25" customFormat="1"/>
     <row r="49" spans="2:4">
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
     </row>
     <row r="52" spans="2:4">
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
     </row>
     <row r="53" spans="2:4">
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
     </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="B9:D9"/>
+  <mergeCells count="1">
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -2783,50 +2741,50 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="116.181818181818" customWidth="1"/>
-    <col min="3" max="3" width="48.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="138" customWidth="1"/>
-    <col min="5" max="5" width="13.7272727272727" customWidth="1"/>
-    <col min="8" max="8" width="17.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="85.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="38.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="57.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="13.7314814814815" customWidth="1"/>
+    <col min="8" max="8" width="17.0925925925926" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="43.5" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
+    <row r="1" ht="65" customHeight="1" spans="1:8">
+      <c r="A1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="26" t="s">
+        <v>5</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
+        <v>65</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
+      <c r="A2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="26" t="s">
+        <v>9</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -2855,42 +2813,40 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:8">
-      <c r="A6" s="3">
+      <c r="A6" s="32">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>21</v>
+      <c r="B6" s="33" t="s">
+        <v>13</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4" t="s">
-        <v>74</v>
+      <c r="D6" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>75</v>
+      <c r="A7" s="32">
+        <v>2</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>67</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2899,9 +2855,12 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="72.5" spans="2:8">
-      <c r="B8" s="4" t="s">
-        <v>76</v>
+    <row r="8" ht="43.2" spans="1:8">
+      <c r="A8" s="32">
+        <v>3</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>68</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2910,31 +2869,29 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+    <row r="9" spans="3:8">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" customFormat="1" spans="1:8">
+    <row r="11" spans="1:8">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2944,335 +2901,345 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" customFormat="1" spans="1:7">
-      <c r="A12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="10" t="s">
+    <row r="12" customFormat="1" spans="1:8">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" s="24" customFormat="1" spans="1:7">
+      <c r="A13" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="43.5" spans="1:7">
-      <c r="A13" s="14"/>
-      <c r="B13" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="25"/>
-    </row>
-    <row r="14" customFormat="1" spans="1:7">
-      <c r="A14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="3"/>
+      <c r="E13" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A14" s="14"/>
+      <c r="B14" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" customFormat="1" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="9"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" customFormat="1" ht="145" spans="1:7">
+    <row r="16" customFormat="1" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="32" t="s">
-        <v>84</v>
+        <v>73</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="33"/>
-    </row>
-    <row r="17" customFormat="1" ht="29" spans="1:7">
+      <c r="F16" s="9"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" customFormat="1" ht="144" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C17" s="15"/>
-      <c r="D17" s="32" t="s">
-        <v>86</v>
+      <c r="D17" s="39" t="s">
+        <v>76</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="33"/>
-    </row>
-    <row r="18" customFormat="1" ht="29" spans="1:7">
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" customFormat="1" ht="28.8" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C18" s="15"/>
-      <c r="D18" s="32" t="s">
-        <v>88</v>
+      <c r="D18" s="39" t="s">
+        <v>78</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="33"/>
-    </row>
-    <row r="19" customFormat="1" spans="1:7">
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" customFormat="1" ht="28.8" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C19" s="15"/>
-      <c r="D19" s="32" t="s">
-        <v>90</v>
+      <c r="D19" s="39" t="s">
+        <v>80</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="33"/>
+      <c r="G19" s="40"/>
     </row>
     <row r="20" customFormat="1" spans="1:7">
       <c r="A20" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C20" s="15"/>
-      <c r="D20" s="32" t="s">
-        <v>92</v>
+      <c r="D20" s="39" t="s">
+        <v>82</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="33"/>
+      <c r="G20" s="40"/>
     </row>
     <row r="21" customFormat="1" spans="1:7">
       <c r="A21" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C21" s="15"/>
-      <c r="D21" s="32" t="s">
-        <v>94</v>
+      <c r="D21" s="39" t="s">
+        <v>84</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="33"/>
+      <c r="G21" s="40"/>
     </row>
     <row r="22" customFormat="1" spans="1:7">
-      <c r="A22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="B22" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C22" s="15"/>
-      <c r="D22" s="32" t="s">
-        <v>96</v>
+      <c r="D22" s="39" t="s">
+        <v>86</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="33"/>
+      <c r="G22" s="40"/>
     </row>
     <row r="23" customFormat="1" spans="1:7">
-      <c r="A23" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="39" t="s">
+        <v>88</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="33"/>
-    </row>
-    <row r="24" customFormat="1" ht="130.5" spans="1:7">
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" customFormat="1" spans="1:7">
       <c r="A24" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="33"/>
-    </row>
-    <row r="25" customFormat="1" spans="1:7">
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" customFormat="1" ht="129.6" spans="1:7">
       <c r="A25" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>58</v>
+        <v>91</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>92</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
-        <v>59</v>
+      <c r="D25" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="33"/>
+      <c r="G25" s="40"/>
     </row>
     <row r="26" customFormat="1" spans="1:7">
       <c r="A26" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>103</v>
+        <v>93</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>50</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="33"/>
+      <c r="G26" s="40"/>
     </row>
     <row r="27" customFormat="1" spans="1:7">
       <c r="A27" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>95</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="32" t="s">
-        <v>106</v>
+      <c r="D27" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="33"/>
+      <c r="G27" s="40"/>
     </row>
     <row r="28" customFormat="1" spans="1:7">
       <c r="A28" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="32" t="s">
-        <v>109</v>
+      <c r="D28" s="39" t="s">
+        <v>98</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="33"/>
+      <c r="G28" s="40"/>
     </row>
     <row r="29" customFormat="1" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="32" t="s">
-        <v>109</v>
+        <v>100</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="39" t="s">
+        <v>101</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="33"/>
-    </row>
-    <row r="30" s="24" customFormat="1" spans="1:7">
-      <c r="A30" s="20" t="s">
+      <c r="G29" s="40"/>
+    </row>
+    <row r="30" customFormat="1" spans="1:7">
+      <c r="A30" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="40"/>
+    </row>
+    <row r="31" s="25" customFormat="1" spans="1:7">
+      <c r="A31" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="44"/>
+    </row>
+    <row r="32" s="25" customFormat="1" spans="1:4">
+      <c r="A32" s="45"/>
+      <c r="B32" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" s="25" customFormat="1" spans="1:4">
+      <c r="A33" s="45"/>
+      <c r="B33" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="45"/>
+      <c r="D33" s="47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" s="25" customFormat="1" spans="1:4">
+      <c r="A34" s="45"/>
+      <c r="B34" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="45"/>
+      <c r="D34" s="47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" s="25" customFormat="1" spans="1:4">
+      <c r="A35" s="45"/>
+      <c r="B35" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="45"/>
+      <c r="D35" s="47" t="s">
         <v>62</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="37"/>
-    </row>
-    <row r="31" s="24" customFormat="1" spans="1:4">
-      <c r="A31" s="38"/>
-      <c r="B31" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" s="24" customFormat="1" spans="1:4">
-      <c r="A32" s="38"/>
-      <c r="B32" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" s="24" customFormat="1" spans="1:4">
-      <c r="A33" s="38"/>
-      <c r="B33" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" s="24" customFormat="1" spans="1:4">
-      <c r="A34" s="38"/>
-      <c r="B34" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="40" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E1:H1"/>
-    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -3289,29 +3256,29 @@
       <selection activeCell="D14" sqref="D14:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="99" customWidth="1"/>
-    <col min="3" max="3" width="9.54545454545454" customWidth="1"/>
-    <col min="4" max="4" width="75.2727272727273" customWidth="1"/>
-    <col min="6" max="6" width="36.1818181818182" customWidth="1"/>
-    <col min="8" max="8" width="15.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="9.5462962962963" customWidth="1"/>
+    <col min="4" max="4" width="75.2685185185185" customWidth="1"/>
+    <col min="6" max="6" width="36.1851851851852" customWidth="1"/>
+    <col min="8" max="8" width="15.8148148148148" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -3319,14 +3286,14 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -3341,18 +3308,18 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="8"/>
       <c r="E4" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -3362,12 +3329,12 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C5" s="3"/>
       <c r="E5" s="9"/>
       <c r="F5" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -3393,10 +3360,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -3437,16 +3404,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3455,7 +3422,7 @@
     <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="12"/>
       <c r="B13" s="13" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="12"/>
@@ -3465,14 +3432,14 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="17" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3480,14 +3447,14 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="17" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3495,14 +3462,14 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3510,7 +3477,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="14"/>
@@ -3522,7 +3489,7 @@
     <row r="18" spans="1:7">
       <c r="A18" s="9"/>
       <c r="B18" s="13" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="12"/>
@@ -3532,14 +3499,14 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="9" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="17" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -3547,14 +3514,14 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="17" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -3562,14 +3529,14 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -3577,14 +3544,14 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -3593,7 +3560,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="9"/>
       <c r="B23" s="13" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="9"/>
@@ -3601,16 +3568,16 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" ht="72.5" spans="1:7">
+    <row r="24" ht="72" spans="1:7">
       <c r="A24" s="9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -3619,7 +3586,7 @@
     <row r="25" spans="1:7">
       <c r="A25" s="9"/>
       <c r="B25" s="13" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="9"/>
@@ -3627,16 +3594,16 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" ht="58" spans="1:7">
+    <row r="26" ht="57.6" spans="1:7">
       <c r="A26" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="19" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -3644,14 +3611,14 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="9" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -3659,14 +3626,14 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -3674,10 +3641,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="9"/>
@@ -3687,10 +3654,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="9"/>
@@ -3701,7 +3668,7 @@
     <row r="31" spans="1:7">
       <c r="A31" s="15"/>
       <c r="B31" s="20" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="9"/>
@@ -3709,46 +3676,46 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" ht="116" spans="1:7">
+    <row r="32" ht="115.2" spans="1:7">
       <c r="A32" s="15" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="19" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" ht="29" spans="1:7">
+    <row r="33" ht="28.8" spans="1:7">
       <c r="A33" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="19" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" ht="29" spans="1:7">
+    <row r="34" ht="28.8" spans="1:7">
       <c r="A34" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="19" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -3756,29 +3723,29 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="9" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" ht="43.5" spans="1:7">
+    <row r="36" ht="43.2" spans="1:7">
       <c r="A36" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="9" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -3786,14 +3753,14 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="9" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -3801,14 +3768,14 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="9" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -3816,14 +3783,14 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="9" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -3831,29 +3798,29 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="9" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" ht="72.5" spans="1:7">
+    <row r="41" ht="72" spans="1:7">
       <c r="A41" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="9" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -3861,14 +3828,14 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="9" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -3876,14 +3843,14 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="9" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -3891,14 +3858,14 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="9" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -3906,14 +3873,14 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="9" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -3921,14 +3888,14 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="9" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -3936,10 +3903,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="9"/>
@@ -3949,25 +3916,25 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="9" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" ht="29" spans="1:7">
+    <row r="49" ht="28.8" spans="1:7">
       <c r="A49" s="3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="9"/>
@@ -3977,14 +3944,14 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="9" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -3992,10 +3959,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="9"/>
@@ -4005,10 +3972,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="9"/>
@@ -4018,10 +3985,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="9"/>
@@ -4031,10 +3998,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="3" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="9"/>
@@ -4054,7 +4021,7 @@
     <row r="56" spans="1:7">
       <c r="A56" s="3"/>
       <c r="B56" s="20" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="9"/>
@@ -4064,14 +4031,14 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="9" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -4089,7 +4056,7 @@
     <row r="59" spans="1:7">
       <c r="A59" s="3"/>
       <c r="B59" s="20" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="9"/>
@@ -4099,14 +4066,14 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -4114,14 +4081,14 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -4129,14 +4096,14 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -4144,31 +4111,31 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="3" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="9" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -4176,29 +4143,29 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="9" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" ht="43.5" spans="1:7">
+    <row r="66" ht="43.2" spans="1:7">
       <c r="A66" s="3" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="9" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -4206,29 +4173,29 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="3" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="9" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" ht="159.5" spans="1:7">
+    <row r="68" ht="158.4" spans="1:7">
       <c r="A68" s="3" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="19" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -4236,14 +4203,14 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="9" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -4251,14 +4218,14 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="3" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="9" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -4266,14 +4233,14 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="3" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="9" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -4281,14 +4248,14 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="3" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="9" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="9"/>
@@ -4296,14 +4263,14 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="3" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="9" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="9"/>
@@ -4311,14 +4278,14 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="9" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="9"/>
@@ -4326,14 +4293,14 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="3" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="9" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="9"/>
@@ -4341,14 +4308,14 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="3" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="9" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -4356,14 +4323,14 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="3" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="9" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -4372,7 +4339,7 @@
     <row r="78" spans="1:7">
       <c r="A78" s="3"/>
       <c r="B78" s="22" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -4382,14 +4349,14 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="3" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="3"/>
@@ -4397,14 +4364,14 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E80" s="23"/>
       <c r="F80" s="3"/>
@@ -4412,14 +4379,14 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
